--- a/biology/Botanique/Diaphananthe_vandiformis/Diaphananthe_vandiformis.xlsx
+++ b/biology/Botanique/Diaphananthe_vandiformis/Diaphananthe_vandiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphananthe vandiformis (Kraenzl.) Schltr. est une espèce d'herbes de la famille des orchidées et du genre Diaphananthe, décrite pour la première fois par Fritz Kränzlin. Elle est relativement rare, endémique du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphananthe vandiformis (Kraenzl.) Schltr. est une espèce d'herbes de la famille des orchidées et du genre Diaphananthe, décrite pour la première fois par Fritz Kränzlin. Elle est relativement rare, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce d'orchidée large présentant de nombreuses feuilles. Inflorescence pendante de 25 cm de long. Les fleurs sont jaunes ou blanches et présentent des pétales lancéolés et un éperon napiforme.
 </t>
